--- a/fin_data_analysis/data/ML_analysis.xlsx
+++ b/fin_data_analysis/data/ML_analysis.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA23AFA-5580-42B8-9313-7904B48B803B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBF1AE1-63A8-4876-8CFC-981435F1BD9C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId1"/>
+    <sheet name="Mean_deviation" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="78">
   <si>
     <t>Start Date</t>
   </si>
@@ -110,6 +111,230 @@
   </si>
   <si>
     <t>0.113333 (0.180862)</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Supp</t>
+  </si>
+  <si>
+    <t>Acc</t>
+  </si>
+  <si>
+    <t>Low dec. boundary</t>
+  </si>
+  <si>
+    <t>Top dec. boundary</t>
+  </si>
+  <si>
+    <t>TS labels distr</t>
+  </si>
+  <si>
+    <t>-1:No     15
+0:Risk    33
+1:Yes     17</t>
+  </si>
+  <si>
+    <t>3
+7
+3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4
+0.67
+0.00 </t>
+  </si>
+  <si>
+    <t>0.33
+0.86
+0.00</t>
+  </si>
+  <si>
+    <t>-1:No  0.50      
+ 0:Risk 0.55
+1:Yes 0.00</t>
+  </si>
+  <si>
+    <t>0.4
+ 0.78
+0.00</t>
+  </si>
+  <si>
+    <t>0.33
+1.00
+0.00</t>
+  </si>
+  <si>
+    <t>-1:No  0.50
+0:Risk  0.64
+1:Yes   0.00</t>
+  </si>
+  <si>
+    <t>0.4
+0.20
+0.33</t>
+  </si>
+  <si>
+    <t>0.67
+0.14
+0.33</t>
+  </si>
+  <si>
+    <t>-1:No  0.29
+0:Risk  0.33
+1:Yes  0.33</t>
+  </si>
+  <si>
+    <t>0.50
+0.43
+0.00</t>
+  </si>
+  <si>
+    <t>0.67
+0.43
+0.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1:No  0.40                    
+0:Risk  0.43                     
+1:Yes  0.00                    </t>
+  </si>
+  <si>
+    <t>0.29
+0.46
+0.33</t>
+  </si>
+  <si>
+    <t>0.33
+ 0.43
+0.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1:No  0.25                     
+0:Risk  0.50                    
+1:Yes  0.33                     </t>
+  </si>
+  <si>
+    <t>0.00
+0.70
+0.00</t>
+  </si>
+  <si>
+    <t>0.00
+1.00
+0.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -1:No  0.00
+0:Risk  0.54
+1:Yes  0.00</t>
+  </si>
+  <si>
+    <t>-1:No     20
+0:Risk    22
+1:Yes     23</t>
+  </si>
+  <si>
+    <t>5
+3
+5</t>
+  </si>
+  <si>
+    <t>0.50
+0.25
+0.33</t>
+  </si>
+  <si>
+    <t>0.60
+0.33
+0.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1:No  0.43
+0:Risk  0.20                     
+1:Yes  1.00                    </t>
+  </si>
+  <si>
+    <t>0.55
+0.44
+0.33</t>
+  </si>
+  <si>
+    <t>0.60
+0.67
+0.20</t>
+  </si>
+  <si>
+    <t>-1:No  0.50
+0:Risk  0.33
+1:Yes  1.00</t>
+  </si>
+  <si>
+    <t>0.33
+0.00
+0.50</t>
+  </si>
+  <si>
+    <t>0.40
+0.00
+0.40</t>
+  </si>
+  <si>
+    <t>-1:No  0.29
+0:Risk  0.00
+1:Yes  0.67</t>
+  </si>
+  <si>
+    <t>0.55
+0.29
+ 0.50</t>
+  </si>
+  <si>
+    <t>0.60
+0.33
+0.40</t>
+  </si>
+  <si>
+    <t>-1:No  0.50
+0:Risk  0.25
+1:Yes  0.67</t>
+  </si>
+  <si>
+    <t>0.20
+0.29
+0.44</t>
+  </si>
+  <si>
+    <t>0.20
+0.33
+0.40</t>
+  </si>
+  <si>
+    <t>-1:No  0.20
+0:Risk  0.25
+1:Yes  0.50</t>
+  </si>
+  <si>
+    <t>0.33
+0.46
+0.29</t>
+  </si>
+  <si>
+    <t>0.20
+1.00
+ 0.20</t>
+  </si>
+  <si>
+    <t>-1:No  1.00
+0:Risk  0.30
+1:Yes  0.50</t>
   </si>
 </sst>
 </file>
@@ -134,7 +359,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,8 +372,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -171,19 +426,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -194,6 +483,87 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -474,11 +844,449 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80631993-7200-4718-93DB-2E5E914B0E3B}">
+  <dimension ref="A1:AI11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AB4" workbookViewId="0">
+      <selection activeCell="AF14" sqref="AF14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="7.7109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="34.140625" style="8" customWidth="1"/>
+    <col min="8" max="10" width="8.5703125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="32" style="8" customWidth="1"/>
+    <col min="13" max="15" width="10.5703125" style="8" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="8" customWidth="1"/>
+    <col min="17" max="17" width="31.85546875" style="8" customWidth="1"/>
+    <col min="18" max="20" width="12.5703125" style="8" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" style="8" customWidth="1"/>
+    <col min="22" max="22" width="32.28515625" style="8" customWidth="1"/>
+    <col min="23" max="25" width="11.7109375" style="8" customWidth="1"/>
+    <col min="26" max="26" width="12.42578125" style="8" customWidth="1"/>
+    <col min="27" max="27" width="34" style="8" customWidth="1"/>
+    <col min="28" max="30" width="12.42578125" style="8" customWidth="1"/>
+    <col min="31" max="31" width="12.5703125" style="8" customWidth="1"/>
+    <col min="32" max="32" width="36.28515625" style="8" customWidth="1"/>
+    <col min="33" max="35" width="12.5703125" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="G1" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="G2" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="G3" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="13"/>
+      <c r="F5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="31"/>
+      <c r="AE5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+    </row>
+    <row r="6" spans="1:35" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="R6" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="S6" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="T6" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="U6" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="V6" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="W6" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="X6" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y6" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z6" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA6" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB6" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC6" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD6" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI6" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:35" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:35" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>43252</v>
+      </c>
+      <c r="B9" s="12">
+        <v>43343</v>
+      </c>
+      <c r="C9" s="8">
+        <v>-0.3</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" s="8">
+        <v>0.307</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="S9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="T9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="U9" s="8">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="V9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="X9" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z9" s="8">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="AA9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB9" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE9" s="8">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="AF9" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG9" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH9" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI9" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+    </row>
+    <row r="11" spans="1:35" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>43252</v>
+      </c>
+      <c r="B11" s="12">
+        <v>43343</v>
+      </c>
+      <c r="C11" s="8">
+        <v>-0.2</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="8">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" s="8">
+        <v>0.307</v>
+      </c>
+      <c r="Q11" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="R11" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="S11" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="T11" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="U11" s="8">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="V11" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="W11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="X11" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y11" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z11" s="8">
+        <v>0.307</v>
+      </c>
+      <c r="AA11" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB11" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC11" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD11" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE11" s="8">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="AF11" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG11" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH11" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI11" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="U5:Y5"/>
+    <mergeCell ref="Z5:AD5"/>
+    <mergeCell ref="AE5:AI5"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="P5:T5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,58 +1298,58 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="2" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>43252</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>43343</v>
       </c>
       <c r="C5" s="1">
@@ -570,10 +1378,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>43252</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>43343</v>
       </c>
       <c r="C6" s="1">
@@ -602,10 +1410,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>43252</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>43343</v>
       </c>
       <c r="C7" s="1">

--- a/fin_data_analysis/data/ML_analysis.xlsx
+++ b/fin_data_analysis/data/ML_analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBF1AE1-63A8-4876-8CFC-981435F1BD9C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FAAF8F-2FA7-4CE4-9C04-FD8F1EC7BBEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId1"/>
+    <sheet name="Models_Analysis" sheetId="3" r:id="rId1"/>
     <sheet name="Mean_deviation" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="121">
   <si>
     <t>Start Date</t>
   </si>
@@ -126,12 +126,6 @@
   </si>
   <si>
     <t>Acc</t>
-  </si>
-  <si>
-    <t>Low dec. boundary</t>
-  </si>
-  <si>
-    <t>Top dec. boundary</t>
   </si>
   <si>
     <t>TS labels distr</t>
@@ -335,6 +329,206 @@
     <t>-1:No  1.00
 0:Risk  0.30
 1:Yes  0.50</t>
+  </si>
+  <si>
+    <t>Low dec. bndry</t>
+  </si>
+  <si>
+    <t>Top dec. bndry</t>
+  </si>
+  <si>
+    <t>-1:No     60
+0:Risk    53
+1:Yes     56</t>
+  </si>
+  <si>
+    <t>9
+8
+17</t>
+  </si>
+  <si>
+    <t>0.34
+0.19
+0.11</t>
+  </si>
+  <si>
+    <t>0.56
+0.25
+0.06</t>
+  </si>
+  <si>
+    <t>-1:No  0.25
+0:Risk  0.15
+1:Yes  1.00</t>
+  </si>
+  <si>
+    <t>0.46
+0.43
+0.21</t>
+  </si>
+  <si>
+    <t>0.67
+0.62
+0.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1:No  0.35
+0:Risk  0.33
+1:Yes  1.00                    </t>
+  </si>
+  <si>
+    <t>9
+ 8
+17</t>
+  </si>
+  <si>
+    <t>0.48
+0.13
+0.33</t>
+  </si>
+  <si>
+    <t>0.78
+ 0.12
+0.24</t>
+  </si>
+  <si>
+    <t>-1:No  0.35
+0:Risk  0.14
+1:Yes   0.57</t>
+  </si>
+  <si>
+    <t>0.30
+0.09
+0.32</t>
+  </si>
+  <si>
+    <t>0.33
+ 0.12
+0.24</t>
+  </si>
+  <si>
+    <t>-1:No  0.27
+0:Risk  0.07
+1:Yes  0.50</t>
+  </si>
+  <si>
+    <t>0.27
+0.00
+0.36</t>
+  </si>
+  <si>
+    <t>0.44
+0.00
+0.29</t>
+  </si>
+  <si>
+    <t>-1:No  0.19
+0:Risk  0.00
+1:Yes  0.45</t>
+  </si>
+  <si>
+    <t>0.27
+ 0.00
+0.23</t>
+  </si>
+  <si>
+    <t>0.44
+0.00
+ 0.18</t>
+  </si>
+  <si>
+    <t>-1:No  0.19
+0:Risk  0.00
+1:Yes  0.33</t>
+  </si>
+  <si>
+    <t>-1:No     85
+0:Risk     1
+1:Yes     83</t>
+  </si>
+  <si>
+    <t>15
+19</t>
+  </si>
+  <si>
+    <t>0.46
+0.42</t>
+  </si>
+  <si>
+    <t>0.53
+0.37</t>
+  </si>
+  <si>
+    <t>-1:No  0.40
+1:Yes  0.50</t>
+  </si>
+  <si>
+    <t>0.55
+0.57</t>
+  </si>
+  <si>
+    <t>0.60
+0.53</t>
+  </si>
+  <si>
+    <t>-1:No  0.50
+1:Yes  0.62</t>
+  </si>
+  <si>
+    <t>15
+ 19</t>
+  </si>
+  <si>
+    <t>0.56
+0.61</t>
+  </si>
+  <si>
+    <t>0.6
+0.58</t>
+  </si>
+  <si>
+    <t>-1:No  0.53
+1:Yes  0.65</t>
+  </si>
+  <si>
+    <t>0.48
+0.62</t>
+  </si>
+  <si>
+    <t>0.47
+0.63</t>
+  </si>
+  <si>
+    <t>-1:No  0.50
+1:Yes  0.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15
+19</t>
+  </si>
+  <si>
+    <t>0.35
+0.67</t>
+  </si>
+  <si>
+    <t>0.27
+ 0.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1:No  0.50
+1:Yes  0.58                   </t>
+  </si>
+  <si>
+    <t>0.55
+0.36</t>
+  </si>
+  <si>
+    <t>0.73
+0.26</t>
+  </si>
+  <si>
+    <t>-1:No  0.44
+1:Yes  0.56</t>
   </si>
 </sst>
 </file>
@@ -484,86 +678,86 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -845,101 +1039,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80631993-7200-4718-93DB-2E5E914B0E3B}">
-  <dimension ref="A1:AI11"/>
+  <dimension ref="A1:AI13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N4" workbookViewId="0">
       <selection activeCell="AF14" sqref="AF14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="7.7109375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="34.140625" style="8" customWidth="1"/>
-    <col min="8" max="10" width="8.5703125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" style="8" customWidth="1"/>
-    <col min="12" max="12" width="32" style="8" customWidth="1"/>
-    <col min="13" max="15" width="10.5703125" style="8" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="8" customWidth="1"/>
-    <col min="17" max="17" width="31.85546875" style="8" customWidth="1"/>
-    <col min="18" max="20" width="12.5703125" style="8" customWidth="1"/>
-    <col min="21" max="21" width="11.7109375" style="8" customWidth="1"/>
-    <col min="22" max="22" width="32.28515625" style="8" customWidth="1"/>
-    <col min="23" max="25" width="11.7109375" style="8" customWidth="1"/>
-    <col min="26" max="26" width="12.42578125" style="8" customWidth="1"/>
-    <col min="27" max="27" width="34" style="8" customWidth="1"/>
-    <col min="28" max="30" width="12.42578125" style="8" customWidth="1"/>
-    <col min="31" max="31" width="12.5703125" style="8" customWidth="1"/>
-    <col min="32" max="32" width="36.28515625" style="8" customWidth="1"/>
-    <col min="33" max="35" width="12.5703125" style="8" customWidth="1"/>
+    <col min="1" max="4" width="7.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="34.140625" style="6" customWidth="1"/>
+    <col min="8" max="10" width="8.5703125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="33.42578125" style="6" customWidth="1"/>
+    <col min="13" max="15" width="10.5703125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="6" customWidth="1"/>
+    <col min="17" max="17" width="31.85546875" style="6" customWidth="1"/>
+    <col min="18" max="20" width="12.5703125" style="6" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" style="6" customWidth="1"/>
+    <col min="22" max="22" width="32.28515625" style="6" customWidth="1"/>
+    <col min="23" max="25" width="11.7109375" style="6" customWidth="1"/>
+    <col min="26" max="26" width="12.42578125" style="6" customWidth="1"/>
+    <col min="27" max="27" width="34" style="6" customWidth="1"/>
+    <col min="28" max="30" width="12.42578125" style="6" customWidth="1"/>
+    <col min="31" max="31" width="12.5703125" style="6" customWidth="1"/>
+    <col min="32" max="32" width="36.28515625" style="6" customWidth="1"/>
+    <col min="33" max="35" width="12.5703125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="G1" s="9">
+      <c r="G1" s="7">
         <v>-1</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="G2" s="9">
+      <c r="G2" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="G3" s="9">
+      <c r="G3" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="13"/>
-      <c r="F5" s="14" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="11"/>
+      <c r="F5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="17" t="s">
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="21" t="s">
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="25" t="s">
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="29" t="s">
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="AA5" s="30"/>
-      <c r="AB5" s="30"/>
-      <c r="AC5" s="30"/>
-      <c r="AD5" s="31"/>
-      <c r="AE5" s="7" t="s">
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="21"/>
+      <c r="AD5" s="22"/>
+      <c r="AE5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="7"/>
+      <c r="AF5" s="23"/>
+      <c r="AG5" s="23"/>
+      <c r="AH5" s="23"/>
+      <c r="AI5" s="23"/>
     </row>
-    <row r="6" spans="1:35" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -947,87 +1141,87 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="M6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="N6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="20" t="s">
+      <c r="O6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="P6" s="24" t="s">
+      <c r="P6" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="Q6" s="24" t="s">
+      <c r="Q6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="R6" s="24" t="s">
+      <c r="R6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="S6" s="24" t="s">
+      <c r="S6" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T6" s="24" t="s">
+      <c r="T6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="U6" s="28" t="s">
+      <c r="U6" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="V6" s="28" t="s">
+      <c r="V6" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="W6" s="28" t="s">
+      <c r="W6" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="X6" s="28" t="s">
+      <c r="X6" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="Y6" s="28" t="s">
+      <c r="Y6" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="Z6" s="32" t="s">
+      <c r="Z6" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="AA6" s="32" t="s">
+      <c r="AA6" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="AB6" s="32" t="s">
+      <c r="AB6" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="AC6" s="32" t="s">
+      <c r="AC6" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="AD6" s="32" t="s">
+      <c r="AD6" s="16" t="s">
         <v>33</v>
       </c>
       <c r="AE6" s="2" t="s">
@@ -1049,221 +1243,460 @@
     <row r="7" spans="1:35" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:35" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:35" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="10">
         <v>43252</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="10">
         <v>43343</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="6">
         <v>-0.3</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>0.3</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="8">
+      <c r="J9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0.307</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="U9" s="6">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="V9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="X9" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z9" s="6">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="AA9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC9" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE9" s="6">
         <v>0.53800000000000003</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9" s="8">
-        <v>0.61499999999999999</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="P9" s="8">
-        <v>0.307</v>
-      </c>
-      <c r="Q9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="R9" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="S9" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="T9" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="U9" s="8">
-        <v>0.38400000000000001</v>
-      </c>
-      <c r="V9" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="W9" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="X9" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y9" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z9" s="8">
-        <v>0.38400000000000001</v>
-      </c>
-      <c r="AA9" s="10" t="s">
+      <c r="AF9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG9" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AB9" s="11" t="s">
+      <c r="AH9" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="AC9" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD9" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE9" s="8">
-        <v>0.53800000000000003</v>
-      </c>
-      <c r="AF9" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG9" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH9" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI9" s="11" t="s">
-        <v>39</v>
+      <c r="AI9" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="E10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
+      <c r="AF10" s="9"/>
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="9"/>
+      <c r="AI10" s="9"/>
     </row>
     <row r="11" spans="1:35" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="A11" s="10">
         <v>43252</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="10">
         <v>43343</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="6">
         <v>-0.2</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="6">
         <v>0.2</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="8">
+      <c r="J11" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="P11" s="6">
+        <v>0.307</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="S11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="T11" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="U11" s="6">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="V11" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="W11" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="X11" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y11" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z11" s="6">
+        <v>0.307</v>
+      </c>
+      <c r="AA11" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB11" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC11" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD11" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE11" s="6">
         <v>0.38400000000000001</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K11" s="8">
-        <v>0.46100000000000002</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="N11" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="O11" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="P11" s="8">
-        <v>0.307</v>
-      </c>
-      <c r="Q11" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="R11" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="S11" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="T11" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="U11" s="8">
-        <v>0.46100000000000002</v>
-      </c>
-      <c r="V11" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="W11" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="X11" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y11" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z11" s="8">
-        <v>0.307</v>
-      </c>
-      <c r="AA11" s="10" t="s">
+      <c r="AF11" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG11" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="AB11" s="11" t="s">
+      <c r="AH11" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="AC11" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD11" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE11" s="8">
-        <v>0.38400000000000001</v>
-      </c>
-      <c r="AF11" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG11" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH11" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI11" s="11" t="s">
-        <v>59</v>
+      <c r="AI11" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>43101</v>
+      </c>
+      <c r="B12" s="10">
+        <v>43343</v>
+      </c>
+      <c r="C12" s="6">
+        <v>-0.2</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="P12" s="6">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="T12" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="U12" s="6">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="V12" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="W12" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="X12" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y12" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z12" s="6">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="AA12" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB12" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC12" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD12" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE12" s="6">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="AF12" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG12" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH12" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI12" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>43101</v>
+      </c>
+      <c r="B13" s="10">
+        <v>43343</v>
+      </c>
+      <c r="C13" s="6">
+        <v>-0.01</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.441</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K13" s="6">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="P13" s="6">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="S13" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="T13" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="U13" s="6">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="V13" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="W13" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="X13" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y13" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z13" s="6">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="AA13" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB13" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC13" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD13" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE13" s="6">
+        <v>0.47</v>
+      </c>
+      <c r="AF13" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG13" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="AH13" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI13" s="9" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1298,20 +1731,20 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">

--- a/fin_data_analysis/data/ML_analysis.xlsx
+++ b/fin_data_analysis/data/ML_analysis.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FAAF8F-2FA7-4CE4-9C04-FD8F1EC7BBEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008028FC-E33B-4C02-B985-B170CC24AB9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,8 +20,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{41AB840A-287D-4A54-982C-220552F03DC0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
++Gold changes in dataset</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="138">
   <si>
     <t>Start Date</t>
   </si>
@@ -529,13 +563,81 @@
   <si>
     <t>-1:No  0.44
 1:Yes  0.56</t>
+  </si>
+  <si>
+    <t>0.69
+0.72</t>
+  </si>
+  <si>
+    <t>0.73
+0.68</t>
+  </si>
+  <si>
+    <t>-1:No  0.65
+1:Yes  0.76</t>
+  </si>
+  <si>
+    <t>0.73
+0.79</t>
+  </si>
+  <si>
+    <t>-1:No  0.73
+1:Yes  0.79</t>
+  </si>
+  <si>
+    <t>0.79
+0.80</t>
+  </si>
+  <si>
+    <t>0.87
+0.74</t>
+  </si>
+  <si>
+    <t>0.61
+0.63</t>
+  </si>
+  <si>
+    <t>0.67
+0.58</t>
+  </si>
+  <si>
+    <t>-1:No  0.56
+1:Yes  0.69</t>
+  </si>
+  <si>
+    <t>0.62
+0.67</t>
+  </si>
+  <si>
+    <t>0.67
+0.63</t>
+  </si>
+  <si>
+    <t>-1:No  0.59
+1:Yes  0.71</t>
+  </si>
+  <si>
+    <t>0.67
+0.69</t>
+  </si>
+  <si>
+    <t>0.73
+0.63</t>
+  </si>
+  <si>
+    <t>-1:No  0.61
+1:Yes  0.75</t>
+  </si>
+  <si>
+    <t>-1:No  0.71
+1:Yes  0.82</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -551,6 +653,19 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1038,11 +1153,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80631993-7200-4718-93DB-2E5E914B0E3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80631993-7200-4718-93DB-2E5E914B0E3B}">
   <dimension ref="A1:AI13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N4" workbookViewId="0">
-      <selection activeCell="AF14" sqref="AF14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1349,38 +1464,116 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="E10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="9"/>
-      <c r="AF10" s="9"/>
-      <c r="AG10" s="9"/>
-      <c r="AH10" s="9"/>
-      <c r="AI10" s="9"/>
+    <row r="10" spans="1:35" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>43252</v>
+      </c>
+      <c r="B10" s="10">
+        <v>43343</v>
+      </c>
+      <c r="C10" s="6">
+        <v>-0.2</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="P10" s="6">
+        <v>0.307</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="T10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="U10" s="6">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="V10" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="W10" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="X10" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z10" s="6">
+        <v>0.307</v>
+      </c>
+      <c r="AA10" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB10" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC10" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE10" s="6">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="AF10" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG10" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH10" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI10" s="9" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="11" spans="1:35" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
-        <v>43252</v>
+        <v>43101</v>
       </c>
       <c r="B11" s="10">
         <v>43343</v>
@@ -1392,97 +1585,97 @@
         <v>0.2</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="F11" s="6">
-        <v>0.38400000000000001</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="K11" s="6">
-        <v>0.46100000000000002</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="P11" s="6">
-        <v>0.307</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="S11" s="9" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="T11" s="9" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="U11" s="6">
-        <v>0.46100000000000002</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="V11" s="8" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="X11" s="9" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="Y11" s="9" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="Z11" s="6">
-        <v>0.307</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="AA11" s="8" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="AB11" s="9" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="AC11" s="9" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="AD11" s="9" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="AE11" s="6">
-        <v>0.38400000000000001</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="AF11" s="8" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AG11" s="9" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AH11" s="9" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="AI11" s="9" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="45" x14ac:dyDescent="0.25">
@@ -1493,103 +1686,103 @@
         <v>43343</v>
       </c>
       <c r="C12" s="6">
-        <v>-0.2</v>
+        <v>-0.01</v>
       </c>
       <c r="D12" s="6">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="F12" s="6">
-        <v>0.23499999999999999</v>
+        <v>0.441</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="K12" s="6">
-        <v>0.38200000000000001</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="P12" s="6">
-        <v>0.35199999999999998</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="S12" s="9" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="T12" s="9" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="U12" s="6">
-        <v>0.23499999999999999</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="V12" s="8" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="W12" s="9" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="X12" s="9" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="Y12" s="9" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="Z12" s="6">
-        <v>0.26400000000000001</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="AA12" s="8" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="AB12" s="9" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="AC12" s="9" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="AD12" s="9" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="AE12" s="6">
-        <v>0.20499999999999999</v>
+        <v>0.47</v>
       </c>
       <c r="AF12" s="8" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="AG12" s="9" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="AH12" s="9" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AI12" s="9" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="45" x14ac:dyDescent="0.25">
@@ -1600,7 +1793,7 @@
         <v>43343</v>
       </c>
       <c r="C13" s="6">
-        <v>-0.01</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="D13" s="6">
         <v>0.01</v>
@@ -1609,91 +1802,91 @@
         <v>99</v>
       </c>
       <c r="F13" s="6">
-        <v>0.441</v>
+        <v>0.70499999999999996</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>100</v>
       </c>
       <c r="K13" s="6">
-        <v>0.55800000000000005</v>
+        <v>0.76400000000000001</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="O13" s="9" t="s">
         <v>100</v>
       </c>
       <c r="P13" s="6">
-        <v>0.58799999999999997</v>
+        <v>0.79400000000000004</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="S13" s="9" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="T13" s="9" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U13" s="6">
-        <v>0.55800000000000005</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="V13" s="8" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="W13" s="9" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="X13" s="9" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="Y13" s="9" t="s">
         <v>100</v>
       </c>
       <c r="Z13" s="6">
-        <v>0.55800000000000005</v>
+        <v>0.64700000000000002</v>
       </c>
       <c r="AA13" s="8" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="AB13" s="9" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="AC13" s="9" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="AD13" s="9" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="AE13" s="6">
-        <v>0.47</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="AF13" s="8" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="AG13" s="9" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="AH13" s="9" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="AI13" s="9" t="s">
         <v>100</v>
@@ -1711,6 +1904,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
